--- a/Test_Case.xlsx
+++ b/Test_Case.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/bd2f5f9e5268bfe9/Desktop/New folder/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Seed Infotech\SEED_SDET_COURSE_MANUAL_TESTING\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="103" documentId="13_ncr:1_{5E0832DD-2A67-47D0-8008-AFDE7C09360B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4E35568F-908A-42F5-884B-789347A6AF56}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{699164BD-9C67-48B5-B8B0-268C49985AEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" firstSheet="4" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" tabRatio="661" firstSheet="7" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Session Work" sheetId="2" r:id="rId1"/>
@@ -22,6 +22,8 @@
     <sheet name="Lab Exercise 6" sheetId="9" r:id="rId7"/>
     <sheet name="Lab Exercise 7" sheetId="11" r:id="rId8"/>
     <sheet name="Lab Exercise 8" sheetId="12" r:id="rId9"/>
+    <sheet name="Lab Exercise 9" sheetId="14" r:id="rId10"/>
+    <sheet name="Lab Exercise 10" sheetId="18" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="402">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="985" uniqueCount="740">
   <si>
     <t>Test case objective</t>
   </si>
@@ -1241,10 +1243,1024 @@
     <t xml:space="preserve">Questions </t>
   </si>
   <si>
-    <t>Answers</t>
-  </si>
-  <si>
     <t>Exam should be resume after connection issue</t>
+  </si>
+  <si>
+    <t>Use case: Online Examination System</t>
+  </si>
+  <si>
+    <t>Admin Module</t>
+  </si>
+  <si>
+    <t>To verify temporary password is generated during user creation</t>
+  </si>
+  <si>
+    <t>To verify error message when duplicate user ID is entered</t>
+  </si>
+  <si>
+    <t>To check user ID should be a minimum of 6 characters.</t>
+  </si>
+  <si>
+    <t>To check admin can modify details of existing user</t>
+  </si>
+  <si>
+    <t>To verify admin can remove a user from the system.</t>
+  </si>
+  <si>
+    <t>To verify admin should be able to allocate subjects to Trainers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To verify admin should be able to add new subject </t>
+  </si>
+  <si>
+    <t>To verify admin should be able to remove existing subject</t>
+  </si>
+  <si>
+    <t>Trainer Module</t>
+  </si>
+  <si>
+    <t>To verify trainer should be able to create topics under the subject</t>
+  </si>
+  <si>
+    <t>To verify trainer should be able to add questions</t>
+  </si>
+  <si>
+    <t>To verify trainer should be able to remove questions</t>
+  </si>
+  <si>
+    <t>To verify trainer should be able to view questions</t>
+  </si>
+  <si>
+    <t>To verify trainer can create a paper pattern for a subject.</t>
+  </si>
+  <si>
+    <t>To verify trainer can select topics and set the number of questions per topic.</t>
+  </si>
+  <si>
+    <t>To verify trainer can set the time duration for the exam.</t>
+  </si>
+  <si>
+    <t>To verify trainer can set answer option for the questions</t>
+  </si>
+  <si>
+    <t>To verify trainer cancan set difficulty of paper</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To verify trainer can modify an existing paper </t>
+  </si>
+  <si>
+    <t>To verify each question should get saved with unique ID</t>
+  </si>
+  <si>
+    <t>To verify trainer can set the passing percentage(Not less than 40%)</t>
+  </si>
+  <si>
+    <t>Counselor Module</t>
+  </si>
+  <si>
+    <t>To verify counselor can register a new student with all mandatory details (name, subjects, email, mobile, fee receipt number).</t>
+  </si>
+  <si>
+    <t>To verify a unique ID is generated for each student after registration.</t>
+  </si>
+  <si>
+    <t>Examiner Module</t>
+  </si>
+  <si>
+    <t>To verify Examiner can create a batch and add registered students to the batch</t>
+  </si>
+  <si>
+    <t>To verify Examiner can set the exam date and time for a batch.</t>
+  </si>
+  <si>
+    <t>To check notification email and SMS should be sent to students once they are allocated an exam</t>
+  </si>
+  <si>
+    <t>To verify system generates individual student reports in PDF format after exam completion.</t>
+  </si>
+  <si>
+    <t>To verify examiner should be able to send certificate to student on email</t>
+  </si>
+  <si>
+    <t>Student Module</t>
+  </si>
+  <si>
+    <t>Verify students can log in with their assigned ID and password</t>
+  </si>
+  <si>
+    <t>To verify the students are allowed only one attempt for exam.</t>
+  </si>
+  <si>
+    <t>To verify Student can finish exam at any point of time within the time limit set for the paper</t>
+  </si>
+  <si>
+    <t>To verifystudents can mark questions for review.</t>
+  </si>
+  <si>
+    <t>To verify students can move to the previous and next questions.</t>
+  </si>
+  <si>
+    <t>To verify the remaining time is displayed to students.</t>
+  </si>
+  <si>
+    <t>To verify a warning is displayed when 5 minutes are remaining.</t>
+  </si>
+  <si>
+    <t>To verify students can view their results after finishing the exam.</t>
+  </si>
+  <si>
+    <t>Non-Functional Requirements</t>
+  </si>
+  <si>
+    <t>To check 500 students should be able to appear for exam concurrently</t>
+  </si>
+  <si>
+    <t>To verify each new question in the student module loads within 3 seconds during the exam.</t>
+  </si>
+  <si>
+    <t>To verify the system is easy to use for students, Trainers, and other users.</t>
+  </si>
+  <si>
+    <t>End-to-end</t>
+  </si>
+  <si>
+    <t>To verify Admin creates a new Trainer user.</t>
+  </si>
+  <si>
+    <t>To verify Trainer creates questions and configures the paper pattern.</t>
+  </si>
+  <si>
+    <t>To verify Counselor registers a new student.</t>
+  </si>
+  <si>
+    <t>To verify Examiner creates a batch, sets the exam date, and sends notifications.</t>
+  </si>
+  <si>
+    <t>To verify Student can login, completes the exam, and views the result.</t>
+  </si>
+  <si>
+    <t>To check Student certificates should be digitally secured (no one should be able to make change in the certificate)</t>
+  </si>
+  <si>
+    <t>Test Case ID</t>
+  </si>
+  <si>
+    <t>Test Steps</t>
+  </si>
+  <si>
+    <t>To verify admin can create a new user</t>
+  </si>
+  <si>
+    <t>To verify admin can modify new user</t>
+  </si>
+  <si>
+    <t>To verify admin can remove a new user</t>
+  </si>
+  <si>
+    <t>To verify admin can generate user id</t>
+  </si>
+  <si>
+    <t>To verify trainer should be able to modify questions</t>
+  </si>
+  <si>
+    <t>To verify admin can reset password if user needed</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>ADM_TC_01</t>
+  </si>
+  <si>
+    <t>Verify admin can create a new user</t>
+  </si>
+  <si>
+    <t>Admin is logged in</t>
+  </si>
+  <si>
+    <t>New user is created successfully, and a confirmation message is displayed.</t>
+  </si>
+  <si>
+    <t>ADM_TC_02</t>
+  </si>
+  <si>
+    <t>Verify admin can modify new user</t>
+  </si>
+  <si>
+    <t>User details are updated successfully, and a confirmation message is displayed.</t>
+  </si>
+  <si>
+    <t>ADM_TC_03</t>
+  </si>
+  <si>
+    <t>Verify admin can remove a new user</t>
+  </si>
+  <si>
+    <t>User is removed successfully, and a confirmation message is displayed.</t>
+  </si>
+  <si>
+    <t>ADM_TC_04</t>
+  </si>
+  <si>
+    <t>Verify admin can generate user ID</t>
+  </si>
+  <si>
+    <t>A unique user ID is generated successfully.</t>
+  </si>
+  <si>
+    <t>ADM_TC_05</t>
+  </si>
+  <si>
+    <t>Verify temporary password is generated during user creation</t>
+  </si>
+  <si>
+    <t>Temporary password is generated and displayed.</t>
+  </si>
+  <si>
+    <t>ADM_TC_06</t>
+  </si>
+  <si>
+    <t>Verify admin can reset password if user needs</t>
+  </si>
+  <si>
+    <t>Password is reset successfully, and a new temporary password is generated.</t>
+  </si>
+  <si>
+    <t>ADM_TC_07</t>
+  </si>
+  <si>
+    <t>Verify error message when duplicate user ID is entered</t>
+  </si>
+  <si>
+    <t>Error message is displayed indicating duplicate user ID.</t>
+  </si>
+  <si>
+    <t>ADM_TC_08</t>
+  </si>
+  <si>
+    <t>Check user ID should be a minimum of 6 characters</t>
+  </si>
+  <si>
+    <t>Error message is displayed indicating user ID must be at least 6 characters.</t>
+  </si>
+  <si>
+    <t>ADM_TC_09</t>
+  </si>
+  <si>
+    <t>Verify admin can modify details of existing user</t>
+  </si>
+  <si>
+    <t>ADM_TC_10</t>
+  </si>
+  <si>
+    <t>Verify admin can remove a user from the system</t>
+  </si>
+  <si>
+    <t>ADM_TC_11</t>
+  </si>
+  <si>
+    <t>Verify admin can add new subject</t>
+  </si>
+  <si>
+    <t>New subject is added successfully, and a confirmation message is displayed.</t>
+  </si>
+  <si>
+    <t>ADM_TC_12</t>
+  </si>
+  <si>
+    <t>Verify admin can remove existing subject</t>
+  </si>
+  <si>
+    <t>Subject is removed successfully, and a confirmation message is displayed.</t>
+  </si>
+  <si>
+    <t>ADM_TC_13</t>
+  </si>
+  <si>
+    <t>Verify admin can allocate subjects to trainers</t>
+  </si>
+  <si>
+    <t>Subjects are allocated to the trainer successfully.</t>
+  </si>
+  <si>
+    <t>TRN_TC_01</t>
+  </si>
+  <si>
+    <t>Verify trainer can create topics under the subject</t>
+  </si>
+  <si>
+    <t>Trainer is logged in</t>
+  </si>
+  <si>
+    <t>Topic is created successfully.</t>
+  </si>
+  <si>
+    <t>TRN_TC_02</t>
+  </si>
+  <si>
+    <t>Verify trainer can add questions</t>
+  </si>
+  <si>
+    <t>Question is added successfully.</t>
+  </si>
+  <si>
+    <t>TRN_TC_03</t>
+  </si>
+  <si>
+    <t>Verify trainer can remove questions</t>
+  </si>
+  <si>
+    <t>Question is removed successfully.</t>
+  </si>
+  <si>
+    <t>TRN_TC_04</t>
+  </si>
+  <si>
+    <t>Verify trainer can modify questions</t>
+  </si>
+  <si>
+    <t>Question details are updated successfully.</t>
+  </si>
+  <si>
+    <t>TRN_TC_05</t>
+  </si>
+  <si>
+    <t>Verify trainer can view questions</t>
+  </si>
+  <si>
+    <t>Trainer can view the list of questions successfully.</t>
+  </si>
+  <si>
+    <t>TRN_TC_06</t>
+  </si>
+  <si>
+    <t>Verify trainer can create a paper pattern for a subject</t>
+  </si>
+  <si>
+    <t>Paper pattern is created successfully.</t>
+  </si>
+  <si>
+    <t>TRN_TC_07</t>
+  </si>
+  <si>
+    <t>Verify trainer can select topics and set the number of questions per topic</t>
+  </si>
+  <si>
+    <t>Topics and question counts are set successfully.</t>
+  </si>
+  <si>
+    <t>TRN_TC_08</t>
+  </si>
+  <si>
+    <t>Verify trainer can set answer options for the questions</t>
+  </si>
+  <si>
+    <t>Answer options are set successfully.</t>
+  </si>
+  <si>
+    <t>TRN_TC_09</t>
+  </si>
+  <si>
+    <t>Verify trainer can set the time duration for the exam</t>
+  </si>
+  <si>
+    <t>Time duration is set successfully.</t>
+  </si>
+  <si>
+    <t>TRN_TC_10</t>
+  </si>
+  <si>
+    <t>Verify trainer can set the passing percentage (not less than 40%)</t>
+  </si>
+  <si>
+    <t>Passing percentage is set successfully.</t>
+  </si>
+  <si>
+    <t>TRN_TC_11</t>
+  </si>
+  <si>
+    <t>Verify trainer can modify an existing paper</t>
+  </si>
+  <si>
+    <t>Paper is modified successfully.</t>
+  </si>
+  <si>
+    <t>TRN_TC_12</t>
+  </si>
+  <si>
+    <t>Verify trainer can set the difficulty level of the paper</t>
+  </si>
+  <si>
+    <t>Difficulty level is set successfully.</t>
+  </si>
+  <si>
+    <t>TRN_TC_13</t>
+  </si>
+  <si>
+    <t>Verify each question should get saved with a unique ID</t>
+  </si>
+  <si>
+    <t>Each question is saved with a unique ID.</t>
+  </si>
+  <si>
+    <t>CSL_TC_01</t>
+  </si>
+  <si>
+    <t>Verify counselor can register a new student with all mandatory details</t>
+  </si>
+  <si>
+    <t>Counselor is logged in</t>
+  </si>
+  <si>
+    <t>Student is registered successfully.</t>
+  </si>
+  <si>
+    <t>CSL_TC_02</t>
+  </si>
+  <si>
+    <t>Verify a unique ID is generated for each student after registration</t>
+  </si>
+  <si>
+    <t>A unique ID is generated and displayed for the student.</t>
+  </si>
+  <si>
+    <t>EXM_TC_01</t>
+  </si>
+  <si>
+    <t>Verify examiner can create a batch and add registered students to the batch</t>
+  </si>
+  <si>
+    <t>Batch is created successfully with the students.</t>
+  </si>
+  <si>
+    <t>EXM_TC_02</t>
+  </si>
+  <si>
+    <t>Verify examiner can set the exam date and time for a batch</t>
+  </si>
+  <si>
+    <t>Exam date and time are set successfully.</t>
+  </si>
+  <si>
+    <t>EXM_TC_03</t>
+  </si>
+  <si>
+    <t>Check notification email and SMS should be sent to students once they are allocated an exam</t>
+  </si>
+  <si>
+    <t>Notification email and SMS are sent to the students.</t>
+  </si>
+  <si>
+    <t>EXM_TC_04</t>
+  </si>
+  <si>
+    <t>Verify system generates individual student reports in PDF format after exam completion</t>
+  </si>
+  <si>
+    <t>Exam is completed</t>
+  </si>
+  <si>
+    <t>Student reports are generated in PDF format.</t>
+  </si>
+  <si>
+    <t>EXM_TC_05</t>
+  </si>
+  <si>
+    <t>Verify examiner can send certificate to student via email</t>
+  </si>
+  <si>
+    <t>Certificate is sent to the student successfully.</t>
+  </si>
+  <si>
+    <t>STU_TC_01</t>
+  </si>
+  <si>
+    <t>Student is registered</t>
+  </si>
+  <si>
+    <t>Student logs in successfully.</t>
+  </si>
+  <si>
+    <t>STU_TC_02</t>
+  </si>
+  <si>
+    <t>Verify students are allowed only one attempt for exam</t>
+  </si>
+  <si>
+    <t>Student is allowed only one attempt for the exam.</t>
+  </si>
+  <si>
+    <t>STU_TC_03</t>
+  </si>
+  <si>
+    <t>Verify students can move to previous and next questions</t>
+  </si>
+  <si>
+    <t>Students can move to previous and next questions successfully.</t>
+  </si>
+  <si>
+    <t>STU_TC_04</t>
+  </si>
+  <si>
+    <t>Verify students can mark questions for review</t>
+  </si>
+  <si>
+    <t>Questions are marked for review successfully.</t>
+  </si>
+  <si>
+    <t>STU_TC_05</t>
+  </si>
+  <si>
+    <t>Verify student can finish exam at any point within the time limit set for the paper</t>
+  </si>
+  <si>
+    <t>Exam is finished, and the answers are submitted.</t>
+  </si>
+  <si>
+    <t>STU_TC_06</t>
+  </si>
+  <si>
+    <t>Verify the remaining time is displayed to students</t>
+  </si>
+  <si>
+    <t>Remaining time is displayed successfully.</t>
+  </si>
+  <si>
+    <t>STU_TC_07</t>
+  </si>
+  <si>
+    <t>Verify a warning is displayed when 5 minutes are remaining</t>
+  </si>
+  <si>
+    <t>Warning is displayed when 5 minutes are remaining.</t>
+  </si>
+  <si>
+    <t>STU_TC_08</t>
+  </si>
+  <si>
+    <t>Verify students can view their results after finishing the exam</t>
+  </si>
+  <si>
+    <t>Students can view their results successfully.</t>
+  </si>
+  <si>
+    <t>NFR_TC_01</t>
+  </si>
+  <si>
+    <t>Check 500 students should be able to appear for the exam concurrently</t>
+  </si>
+  <si>
+    <t>System is configured for load testing</t>
+  </si>
+  <si>
+    <t>1. Simulate 500 students logging in and starting the exam simultaneously.</t>
+  </si>
+  <si>
+    <t>System handles 500 concurrent students without performance degradation.</t>
+  </si>
+  <si>
+    <t>NFR_TC_02</t>
+  </si>
+  <si>
+    <t>Verify the system is easy to use for students, trainers, and other users</t>
+  </si>
+  <si>
+    <t>Users have access to the system</t>
+  </si>
+  <si>
+    <t>System receives positive feedback for ease of use.</t>
+  </si>
+  <si>
+    <t>NFR_TC_03</t>
+  </si>
+  <si>
+    <t>Verify each new question in the student module loads within 3 seconds during the exam</t>
+  </si>
+  <si>
+    <t>Each new question loads within 3 seconds.</t>
+  </si>
+  <si>
+    <t>NFR_TC_04</t>
+  </si>
+  <si>
+    <t>Check student certificates should be digitally secured</t>
+  </si>
+  <si>
+    <t>System is configured for certificate security</t>
+  </si>
+  <si>
+    <t>Certificates are digitally secured and cannot be altered.</t>
+  </si>
+  <si>
+    <t>E2E_TC_01</t>
+  </si>
+  <si>
+    <t>Verify admin creates a new trainer user</t>
+  </si>
+  <si>
+    <t>Trainer user is created successfully.</t>
+  </si>
+  <si>
+    <t>E2E_TC_02</t>
+  </si>
+  <si>
+    <t>Verify trainer creates questions and configures the paper pattern</t>
+  </si>
+  <si>
+    <t>Questions are created, and paper pattern is configured successfully.</t>
+  </si>
+  <si>
+    <t>E2E_TC_03</t>
+  </si>
+  <si>
+    <t>Verify counselor registers a new student</t>
+  </si>
+  <si>
+    <t>E2E_TC_04</t>
+  </si>
+  <si>
+    <t>Verify examiner creates a batch, sets the exam date, and sends notifications</t>
+  </si>
+  <si>
+    <t>Examiner is logged in</t>
+  </si>
+  <si>
+    <t>Batch is created, exam date is set, and notifications are sent successfully.</t>
+  </si>
+  <si>
+    <t>E2E_TC_05</t>
+  </si>
+  <si>
+    <t>Verify student can log in, complete the exam, and view the result</t>
+  </si>
+  <si>
+    <t>Student is registered; exam is scheduled</t>
+  </si>
+  <si>
+    <t>Student logs in, completes the exam, and views the result successfully.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Navigate to 'Create User' section. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2. Enter user details. </t>
+  </si>
+  <si>
+    <t>3. Click 'Create'.</t>
+  </si>
+  <si>
+    <t>User exists</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Navigate to 'Manage Users' section. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2. Select a user. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3. Modify user details. </t>
+  </si>
+  <si>
+    <t>4. Click 'Save'.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3. Click 'Remove'. </t>
+  </si>
+  <si>
+    <t>4. Confirm removal.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Admin is logged in </t>
+  </si>
+  <si>
+    <t>User creation in progress</t>
+  </si>
+  <si>
+    <t>3. Click 'Generate User ID'.</t>
+  </si>
+  <si>
+    <t>3. Click 'Reset Password'.</t>
+  </si>
+  <si>
+    <t>Duplicate user ID entered</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2. Enter existing user ID. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2. Enter user ID with less than 6 characters. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Navigate to 'Manage Subjects' section. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2. Enter subject details. </t>
+  </si>
+  <si>
+    <t>3. Click 'Add Subject'.</t>
+  </si>
+  <si>
+    <t>Subject exists</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2. Select a subject. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3. Click 'Remove Subject'. </t>
+  </si>
+  <si>
+    <t>Subjects and trainers exist</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Navigate to 'Allocate Subjects' section. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2. Select a trainer. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3. Select subjects. </t>
+  </si>
+  <si>
+    <t>4. Click 'Allocate'.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Navigate to 'Create Topics' section. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2. Enter topic details. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trainer is logged in </t>
+  </si>
+  <si>
+    <t>Topics exist</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Navigate to 'Manage Questions' section. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2. Select a topic. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3. Enter question details. </t>
+  </si>
+  <si>
+    <t>Questions exist</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2. Select a question. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3. Modify question details. </t>
+  </si>
+  <si>
+    <t>3. View the list of questions.</t>
+  </si>
+  <si>
+    <t>Subject is allocated</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3. Define the paper pattern. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Navigate to 'Create Paper Pattern' section. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3. Select topics and set the number of questions per topic. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3. Set answer options. </t>
+  </si>
+  <si>
+    <t>Paper pattern is created</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3. Set the time duration for the exam. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3. Set the passing percentage (not less than 40%). </t>
+  </si>
+  <si>
+    <t>Paper pattern exists</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Navigate to 'Manage Papers' section. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2. Select an existing paper. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3. Modify the paper details. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3. Set the difficulty level of the paper. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2. Add a new question. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3. Save the question. </t>
+  </si>
+  <si>
+    <t>4. Verify the unique ID.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Navigate to 'Register Student' section. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2. Enter all mandatory student details. </t>
+  </si>
+  <si>
+    <t>3. Click 'Register'.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Register a new student with all mandatory details. </t>
+  </si>
+  <si>
+    <t>2. Check if a unique ID is generated for the student.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Examiner is logged in </t>
+  </si>
+  <si>
+    <t>Students are registered</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Navigate to 'Create Batch' section. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2. Enter batch details. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3. Add registered students to the batch. </t>
+  </si>
+  <si>
+    <t>4. Click 'Create'.</t>
+  </si>
+  <si>
+    <t>Batch is created</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Navigate to 'Manage Batches' section. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2. Select a batch. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3. Set the exam date and time. </t>
+  </si>
+  <si>
+    <t>Exam date and time are set</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Allocate students to an exam. </t>
+  </si>
+  <si>
+    <t>2. Verify email and SMS notifications are sent.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Complete the exam. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2. Generate student reports. </t>
+  </si>
+  <si>
+    <t>3. Verify reports are in PDF format.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Exam is completed </t>
+  </si>
+  <si>
+    <t>Reports are generated</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Generate student certificate. </t>
+  </si>
+  <si>
+    <t>2. Send certificate via email.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Open the login page. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2. Enter assigned ID and password. </t>
+  </si>
+  <si>
+    <t>3. Click 'Login'.</t>
+  </si>
+  <si>
+    <t>Student is logged in</t>
+  </si>
+  <si>
+    <t>Exam is scheduled</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Attempt the exam. </t>
+  </si>
+  <si>
+    <t>2. Try to re-attempt the exam.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Student is logged in </t>
+  </si>
+  <si>
+    <t>Exam is in progress</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Start the exam. </t>
+  </si>
+  <si>
+    <t>2. Navigate through questions.</t>
+  </si>
+  <si>
+    <t>2. Mark a question for review.</t>
+  </si>
+  <si>
+    <t>2. Click 'Finish' at any point within the time limit.</t>
+  </si>
+  <si>
+    <t>2. Verify the remaining time is displayed.</t>
+  </si>
+  <si>
+    <t>2. Verify a warning is displayed when 5 minutes are remaining.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Finish the exam. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2. Navigate to 'Results' section. </t>
+  </si>
+  <si>
+    <t>3. View the exam results.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Conduct a usability test with students, trainers, and other users. </t>
+  </si>
+  <si>
+    <t>2. Collect feedback on ease of use.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Navigate through questions during the exam. </t>
+  </si>
+  <si>
+    <t>2. Measure the time taken to load each new question.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Generate a student certificate. </t>
+  </si>
+  <si>
+    <t>2. Verify the digital security measures in place.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2. Enter trainer details. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2. Add questions. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3. Navigate to 'Create Paper Pattern' section. </t>
+  </si>
+  <si>
+    <t>4. Configure the paper pattern.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2. Enter student details. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2. Enter batch details and set the exam date. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3. Add students to the batch. </t>
+  </si>
+  <si>
+    <t>4. Send notifications.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Log in as a student. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2. Start and complete the exam. </t>
+  </si>
+  <si>
+    <t>3. View the result.</t>
+  </si>
+  <si>
+    <t>Who does what?</t>
+  </si>
+  <si>
+    <t>Sequence of activities</t>
+  </si>
+  <si>
+    <t>Data that is stored</t>
+  </si>
+  <si>
+    <t>Give example of any user input validation specified in the requirements</t>
+  </si>
+  <si>
+    <t>Give example of any performance related requirement</t>
+  </si>
+  <si>
+    <t>Pre Requisite</t>
   </si>
 </sst>
 </file>
@@ -1356,10 +2372,14 @@
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1376,10 +2396,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1996,12 +3012,2417 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{088DF275-0E30-4C75-A2BB-D5AA89224108}">
+  <dimension ref="A1:B60"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="104.54296875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" s="14" t="s">
+        <v>402</v>
+      </c>
+      <c r="B4" s="14"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" s="6">
+        <v>1</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" s="6">
+        <v>2</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" s="6">
+        <v>3</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" s="6">
+        <v>4</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9" s="6">
+        <v>5</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10" s="6">
+        <v>6</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11" s="6">
+        <v>7</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A12" s="6">
+        <v>8</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A13" s="6">
+        <v>9</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A14" s="6">
+        <v>10</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A15" s="6">
+        <v>11</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A16" s="6">
+        <v>12</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17" s="6">
+        <v>13</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A18" s="14" t="s">
+        <v>411</v>
+      </c>
+      <c r="B18" s="14"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A19" s="6">
+        <v>1</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A20" s="6">
+        <v>2</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A21" s="6">
+        <v>3</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A22" s="6">
+        <v>4</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A23" s="6">
+        <v>5</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A24" s="6">
+        <v>6</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A25" s="6">
+        <v>7</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A26" s="6">
+        <v>8</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A27" s="6">
+        <v>9</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A28" s="6">
+        <v>10</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A29" s="6">
+        <v>11</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A30" s="6">
+        <v>12</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A31" s="6">
+        <v>13</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A32" s="14" t="s">
+        <v>424</v>
+      </c>
+      <c r="B32" s="14"/>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A33" s="6">
+        <v>1</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A34" s="6">
+        <v>2</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A35" s="14" t="s">
+        <v>427</v>
+      </c>
+      <c r="B35" s="14"/>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A36" s="6">
+        <v>1</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A37" s="6">
+        <v>2</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A38" s="6">
+        <v>3</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A39" s="6">
+        <v>4</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A40" s="6">
+        <v>5</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A41" s="14" t="s">
+        <v>433</v>
+      </c>
+      <c r="B41" s="14"/>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A42" s="6">
+        <v>1</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A43" s="6">
+        <v>2</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A44" s="6">
+        <v>3</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A45" s="6">
+        <v>4</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A46" s="6">
+        <v>5</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A47" s="6">
+        <v>6</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A48" s="6">
+        <v>7</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A49" s="6">
+        <v>8</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A50" s="14" t="s">
+        <v>442</v>
+      </c>
+      <c r="B50" s="14"/>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A51" s="6">
+        <v>1</v>
+      </c>
+      <c r="B51" s="6" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A52" s="6">
+        <v>2</v>
+      </c>
+      <c r="B52" s="6" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A53" s="6">
+        <v>3</v>
+      </c>
+      <c r="B53" s="6" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A54" s="6">
+        <v>4</v>
+      </c>
+      <c r="B54" s="12" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A55" s="14" t="s">
+        <v>446</v>
+      </c>
+      <c r="B55" s="14"/>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A56" s="6">
+        <v>1</v>
+      </c>
+      <c r="B56" s="6" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A57" s="6">
+        <v>2</v>
+      </c>
+      <c r="B57" s="6" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A58" s="6">
+        <v>3</v>
+      </c>
+      <c r="B58" s="6" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A59" s="6">
+        <v>4</v>
+      </c>
+      <c r="B59" s="6" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A60" s="6">
+        <v>5</v>
+      </c>
+      <c r="B60" s="6" t="s">
+        <v>451</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="A50:B50"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5DEBD3B-6C3F-4BC2-864A-9756B0CD8B20}">
+  <dimension ref="A3:E160"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="11.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="79.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="36.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="62.6328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="67.6328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" s="5" t="s">
+        <v>453</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>461</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>739</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>454</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" s="6" t="s">
+        <v>462</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>463</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>464</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>619</v>
+      </c>
+      <c r="E4" s="6"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" s="6"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6" t="s">
+        <v>620</v>
+      </c>
+      <c r="E5" s="6"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" s="6"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6" t="s">
+        <v>621</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="6" t="s">
+        <v>466</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>467</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>464</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>623</v>
+      </c>
+      <c r="E7" s="6"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="6"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6" t="s">
+        <v>622</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>624</v>
+      </c>
+      <c r="E8" s="6"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="6"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6" t="s">
+        <v>625</v>
+      </c>
+      <c r="E9" s="6"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="6"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6" t="s">
+        <v>626</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11" s="6" t="s">
+        <v>469</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>470</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>464</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>623</v>
+      </c>
+      <c r="E11" s="6"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A12" s="6"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6" t="s">
+        <v>622</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>624</v>
+      </c>
+      <c r="E12" s="6"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A13" s="6"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6" t="s">
+        <v>627</v>
+      </c>
+      <c r="E13" s="6"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A14" s="6"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6" t="s">
+        <v>628</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A15" s="6" t="s">
+        <v>472</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>473</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>629</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>619</v>
+      </c>
+      <c r="E15" s="6"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A16" s="6"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6" t="s">
+        <v>630</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>620</v>
+      </c>
+      <c r="E16" s="6"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A17" s="6"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6" t="s">
+        <v>631</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A18" s="6" t="s">
+        <v>475</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>476</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>464</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>619</v>
+      </c>
+      <c r="E18" s="6"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A19" s="6"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6" t="s">
+        <v>630</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>620</v>
+      </c>
+      <c r="E19" s="6"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A20" s="6"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6" t="s">
+        <v>621</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A21" s="6" t="s">
+        <v>478</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>479</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>464</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>623</v>
+      </c>
+      <c r="E21" s="6"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A22" s="6"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="6" t="s">
+        <v>622</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>624</v>
+      </c>
+      <c r="E22" s="6"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A23" s="6"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6" t="s">
+        <v>632</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A24" s="6" t="s">
+        <v>481</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>482</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>464</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>619</v>
+      </c>
+      <c r="E24" s="6"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A25" s="6"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="6" t="s">
+        <v>633</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>634</v>
+      </c>
+      <c r="E25" s="6"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A26" s="6"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6" t="s">
+        <v>621</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A27" s="6" t="s">
+        <v>484</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>485</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>464</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>619</v>
+      </c>
+      <c r="E27" s="6"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A28" s="6"/>
+      <c r="B28" s="6"/>
+      <c r="C28" s="6" t="s">
+        <v>630</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>635</v>
+      </c>
+      <c r="E28" s="6"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A29" s="6"/>
+      <c r="B29" s="6"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6" t="s">
+        <v>621</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A30" s="6" t="s">
+        <v>487</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>488</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>464</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>623</v>
+      </c>
+      <c r="E30" s="6"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A31" s="6"/>
+      <c r="B31" s="6"/>
+      <c r="C31" s="6" t="s">
+        <v>622</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>624</v>
+      </c>
+      <c r="E31" s="6"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A32" s="6"/>
+      <c r="B32" s="6"/>
+      <c r="C32" s="6"/>
+      <c r="D32" s="6" t="s">
+        <v>625</v>
+      </c>
+      <c r="E32" s="6"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A33" s="6"/>
+      <c r="B33" s="6"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="6" t="s">
+        <v>626</v>
+      </c>
+      <c r="E33" s="6" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A34" s="6" t="s">
+        <v>489</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>490</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>464</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>623</v>
+      </c>
+      <c r="E34" s="6"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A35" s="6"/>
+      <c r="B35" s="6"/>
+      <c r="C35" s="6" t="s">
+        <v>622</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>624</v>
+      </c>
+      <c r="E35" s="6"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A36" s="6"/>
+      <c r="B36" s="6"/>
+      <c r="C36" s="6"/>
+      <c r="D36" s="6" t="s">
+        <v>627</v>
+      </c>
+      <c r="E36" s="6"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A37" s="6"/>
+      <c r="B37" s="6"/>
+      <c r="C37" s="6"/>
+      <c r="D37" s="6" t="s">
+        <v>628</v>
+      </c>
+      <c r="E37" s="6" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A38" s="6" t="s">
+        <v>491</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>492</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>464</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>636</v>
+      </c>
+      <c r="E38" s="6"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A39" s="6"/>
+      <c r="B39" s="6"/>
+      <c r="C39" s="6"/>
+      <c r="D39" s="6" t="s">
+        <v>637</v>
+      </c>
+      <c r="E39" s="6"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A40" s="6"/>
+      <c r="B40" s="6"/>
+      <c r="C40" s="6"/>
+      <c r="D40" s="6" t="s">
+        <v>638</v>
+      </c>
+      <c r="E40" s="6" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A41" s="6" t="s">
+        <v>494</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>495</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>464</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>636</v>
+      </c>
+      <c r="E41" s="6"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A42" s="6"/>
+      <c r="B42" s="6"/>
+      <c r="C42" s="6" t="s">
+        <v>639</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>640</v>
+      </c>
+      <c r="E42" s="6"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A43" s="6"/>
+      <c r="B43" s="6"/>
+      <c r="C43" s="6"/>
+      <c r="D43" s="6" t="s">
+        <v>641</v>
+      </c>
+      <c r="E43" s="6"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A44" s="6"/>
+      <c r="B44" s="6"/>
+      <c r="C44" s="6"/>
+      <c r="D44" s="6" t="s">
+        <v>628</v>
+      </c>
+      <c r="E44" s="6" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A45" s="6" t="s">
+        <v>497</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>498</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>629</v>
+      </c>
+      <c r="D45" s="6" t="s">
+        <v>643</v>
+      </c>
+      <c r="E45" s="6"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A46" s="6"/>
+      <c r="B46" s="6"/>
+      <c r="C46" s="6" t="s">
+        <v>642</v>
+      </c>
+      <c r="D46" s="6" t="s">
+        <v>644</v>
+      </c>
+      <c r="E46" s="6"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A47" s="6"/>
+      <c r="B47" s="6"/>
+      <c r="C47" s="6"/>
+      <c r="D47" s="6" t="s">
+        <v>645</v>
+      </c>
+      <c r="E47" s="6"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A48" s="6"/>
+      <c r="B48" s="6"/>
+      <c r="C48" s="6"/>
+      <c r="D48" s="6" t="s">
+        <v>646</v>
+      </c>
+      <c r="E48" s="6" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A49" s="6" t="s">
+        <v>500</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>501</v>
+      </c>
+      <c r="C49" s="6" t="s">
+        <v>502</v>
+      </c>
+      <c r="D49" s="6" t="s">
+        <v>647</v>
+      </c>
+      <c r="E49" s="6"/>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A50" s="6"/>
+      <c r="B50" s="6"/>
+      <c r="C50" s="6"/>
+      <c r="D50" s="6" t="s">
+        <v>648</v>
+      </c>
+      <c r="E50" s="6"/>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A51" s="6"/>
+      <c r="B51" s="6"/>
+      <c r="C51" s="6"/>
+      <c r="D51" s="6" t="s">
+        <v>621</v>
+      </c>
+      <c r="E51" s="6" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A52" s="6" t="s">
+        <v>504</v>
+      </c>
+      <c r="B52" s="6" t="s">
+        <v>505</v>
+      </c>
+      <c r="C52" s="6" t="s">
+        <v>649</v>
+      </c>
+      <c r="D52" s="6" t="s">
+        <v>651</v>
+      </c>
+      <c r="E52" s="6"/>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A53" s="6"/>
+      <c r="B53" s="6"/>
+      <c r="C53" s="6" t="s">
+        <v>650</v>
+      </c>
+      <c r="D53" s="6" t="s">
+        <v>652</v>
+      </c>
+      <c r="E53" s="6"/>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A54" s="6"/>
+      <c r="B54" s="6"/>
+      <c r="C54" s="6"/>
+      <c r="D54" s="6" t="s">
+        <v>653</v>
+      </c>
+      <c r="E54" s="6"/>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A55" s="6"/>
+      <c r="B55" s="6"/>
+      <c r="C55" s="6"/>
+      <c r="D55" s="6" t="s">
+        <v>626</v>
+      </c>
+      <c r="E55" s="6" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A56" s="6" t="s">
+        <v>507</v>
+      </c>
+      <c r="B56" s="6" t="s">
+        <v>508</v>
+      </c>
+      <c r="C56" s="6" t="s">
+        <v>502</v>
+      </c>
+      <c r="D56" s="6" t="s">
+        <v>651</v>
+      </c>
+      <c r="E56" s="6"/>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A57" s="6"/>
+      <c r="B57" s="6"/>
+      <c r="C57" s="6" t="s">
+        <v>654</v>
+      </c>
+      <c r="D57" s="6" t="s">
+        <v>655</v>
+      </c>
+      <c r="E57" s="6"/>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A58" s="6"/>
+      <c r="B58" s="6"/>
+      <c r="C58" s="6"/>
+      <c r="D58" s="6" t="s">
+        <v>627</v>
+      </c>
+      <c r="E58" s="6"/>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A59" s="6"/>
+      <c r="B59" s="6"/>
+      <c r="C59" s="6"/>
+      <c r="D59" s="6" t="s">
+        <v>628</v>
+      </c>
+      <c r="E59" s="6" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A60" s="6" t="s">
+        <v>510</v>
+      </c>
+      <c r="B60" s="6" t="s">
+        <v>511</v>
+      </c>
+      <c r="C60" s="6" t="s">
+        <v>649</v>
+      </c>
+      <c r="D60" s="6" t="s">
+        <v>651</v>
+      </c>
+      <c r="E60" s="6"/>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A61" s="6"/>
+      <c r="B61" s="6"/>
+      <c r="C61" s="6" t="s">
+        <v>654</v>
+      </c>
+      <c r="D61" s="6" t="s">
+        <v>655</v>
+      </c>
+      <c r="E61" s="6"/>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A62" s="6"/>
+      <c r="B62" s="6"/>
+      <c r="C62" s="6"/>
+      <c r="D62" s="6" t="s">
+        <v>656</v>
+      </c>
+      <c r="E62" s="6"/>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A63" s="6"/>
+      <c r="B63" s="6"/>
+      <c r="C63" s="6"/>
+      <c r="D63" s="6" t="s">
+        <v>626</v>
+      </c>
+      <c r="E63" s="6" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A64" s="6" t="s">
+        <v>513</v>
+      </c>
+      <c r="B64" s="6" t="s">
+        <v>514</v>
+      </c>
+      <c r="C64" s="6" t="s">
+        <v>649</v>
+      </c>
+      <c r="D64" s="6" t="s">
+        <v>651</v>
+      </c>
+      <c r="E64" s="6"/>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A65" s="6"/>
+      <c r="B65" s="6"/>
+      <c r="C65" s="6" t="s">
+        <v>654</v>
+      </c>
+      <c r="D65" s="6" t="s">
+        <v>652</v>
+      </c>
+      <c r="E65" s="6"/>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A66" s="6"/>
+      <c r="B66" s="6"/>
+      <c r="C66" s="6"/>
+      <c r="D66" s="6" t="s">
+        <v>657</v>
+      </c>
+      <c r="E66" s="6" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A67" s="6" t="s">
+        <v>516</v>
+      </c>
+      <c r="B67" s="6" t="s">
+        <v>517</v>
+      </c>
+      <c r="C67" s="6" t="s">
+        <v>649</v>
+      </c>
+      <c r="D67" s="6" t="s">
+        <v>660</v>
+      </c>
+      <c r="E67" s="6"/>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A68" s="6"/>
+      <c r="B68" s="6"/>
+      <c r="C68" s="6" t="s">
+        <v>658</v>
+      </c>
+      <c r="D68" s="6" t="s">
+        <v>640</v>
+      </c>
+      <c r="E68" s="6"/>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A69" s="6"/>
+      <c r="B69" s="6"/>
+      <c r="C69" s="6"/>
+      <c r="D69" s="6" t="s">
+        <v>659</v>
+      </c>
+      <c r="E69" s="6"/>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A70" s="6"/>
+      <c r="B70" s="6"/>
+      <c r="C70" s="6"/>
+      <c r="D70" s="6" t="s">
+        <v>626</v>
+      </c>
+      <c r="E70" s="6" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A71" s="6" t="s">
+        <v>519</v>
+      </c>
+      <c r="B71" s="6" t="s">
+        <v>520</v>
+      </c>
+      <c r="C71" s="6" t="s">
+        <v>649</v>
+      </c>
+      <c r="D71" s="6" t="s">
+        <v>660</v>
+      </c>
+      <c r="E71" s="6"/>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A72" s="6"/>
+      <c r="B72" s="6"/>
+      <c r="C72" s="6" t="s">
+        <v>658</v>
+      </c>
+      <c r="D72" s="6" t="s">
+        <v>640</v>
+      </c>
+      <c r="E72" s="6"/>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A73" s="6"/>
+      <c r="B73" s="6"/>
+      <c r="C73" s="6"/>
+      <c r="D73" s="6" t="s">
+        <v>661</v>
+      </c>
+      <c r="E73" s="6"/>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A74" s="6"/>
+      <c r="B74" s="6"/>
+      <c r="C74" s="6"/>
+      <c r="D74" s="6" t="s">
+        <v>626</v>
+      </c>
+      <c r="E74" s="6" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A75" s="6" t="s">
+        <v>522</v>
+      </c>
+      <c r="B75" s="6" t="s">
+        <v>523</v>
+      </c>
+      <c r="C75" s="6" t="s">
+        <v>502</v>
+      </c>
+      <c r="D75" s="6" t="s">
+        <v>651</v>
+      </c>
+      <c r="E75" s="6"/>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A76" s="6"/>
+      <c r="B76" s="6"/>
+      <c r="C76" s="6" t="s">
+        <v>654</v>
+      </c>
+      <c r="D76" s="6" t="s">
+        <v>655</v>
+      </c>
+      <c r="E76" s="6"/>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A77" s="6"/>
+      <c r="B77" s="6"/>
+      <c r="C77" s="6"/>
+      <c r="D77" s="6" t="s">
+        <v>662</v>
+      </c>
+      <c r="E77" s="6"/>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A78" s="6"/>
+      <c r="B78" s="6"/>
+      <c r="C78" s="6"/>
+      <c r="D78" s="6" t="s">
+        <v>626</v>
+      </c>
+      <c r="E78" s="6" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A79" s="6" t="s">
+        <v>525</v>
+      </c>
+      <c r="B79" s="6" t="s">
+        <v>526</v>
+      </c>
+      <c r="C79" s="6" t="s">
+        <v>649</v>
+      </c>
+      <c r="D79" s="6" t="s">
+        <v>660</v>
+      </c>
+      <c r="E79" s="6"/>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A80" s="6"/>
+      <c r="B80" s="6"/>
+      <c r="C80" s="6" t="s">
+        <v>663</v>
+      </c>
+      <c r="D80" s="6" t="s">
+        <v>640</v>
+      </c>
+      <c r="E80" s="6"/>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A81" s="6"/>
+      <c r="B81" s="6"/>
+      <c r="C81" s="6"/>
+      <c r="D81" s="6" t="s">
+        <v>664</v>
+      </c>
+      <c r="E81" s="6"/>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A82" s="6"/>
+      <c r="B82" s="6"/>
+      <c r="C82" s="6"/>
+      <c r="D82" s="6" t="s">
+        <v>626</v>
+      </c>
+      <c r="E82" s="6" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A83" s="6" t="s">
+        <v>528</v>
+      </c>
+      <c r="B83" s="6" t="s">
+        <v>529</v>
+      </c>
+      <c r="C83" s="6" t="s">
+        <v>649</v>
+      </c>
+      <c r="D83" s="6" t="s">
+        <v>660</v>
+      </c>
+      <c r="E83" s="6"/>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A84" s="6"/>
+      <c r="B84" s="6"/>
+      <c r="C84" s="6" t="s">
+        <v>663</v>
+      </c>
+      <c r="D84" s="6" t="s">
+        <v>640</v>
+      </c>
+      <c r="E84" s="6"/>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A85" s="6"/>
+      <c r="B85" s="6"/>
+      <c r="C85" s="6"/>
+      <c r="D85" s="6" t="s">
+        <v>665</v>
+      </c>
+      <c r="E85" s="6"/>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A86" s="6"/>
+      <c r="B86" s="6"/>
+      <c r="C86" s="6"/>
+      <c r="D86" s="6" t="s">
+        <v>626</v>
+      </c>
+      <c r="E86" s="6" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A87" s="6" t="s">
+        <v>531</v>
+      </c>
+      <c r="B87" s="6" t="s">
+        <v>532</v>
+      </c>
+      <c r="C87" s="6" t="s">
+        <v>649</v>
+      </c>
+      <c r="D87" s="6" t="s">
+        <v>667</v>
+      </c>
+      <c r="E87" s="6"/>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A88" s="6"/>
+      <c r="B88" s="6"/>
+      <c r="C88" s="6" t="s">
+        <v>666</v>
+      </c>
+      <c r="D88" s="6" t="s">
+        <v>668</v>
+      </c>
+      <c r="E88" s="6"/>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A89" s="6"/>
+      <c r="B89" s="6"/>
+      <c r="C89" s="6"/>
+      <c r="D89" s="6" t="s">
+        <v>669</v>
+      </c>
+      <c r="E89" s="6"/>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A90" s="6"/>
+      <c r="B90" s="6"/>
+      <c r="C90" s="6"/>
+      <c r="D90" s="6" t="s">
+        <v>626</v>
+      </c>
+      <c r="E90" s="6" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A91" s="6" t="s">
+        <v>534</v>
+      </c>
+      <c r="B91" s="6" t="s">
+        <v>535</v>
+      </c>
+      <c r="C91" s="6" t="s">
+        <v>649</v>
+      </c>
+      <c r="D91" s="6" t="s">
+        <v>660</v>
+      </c>
+      <c r="E91" s="6"/>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A92" s="6"/>
+      <c r="B92" s="6"/>
+      <c r="C92" s="6" t="s">
+        <v>663</v>
+      </c>
+      <c r="D92" s="6" t="s">
+        <v>640</v>
+      </c>
+      <c r="E92" s="6"/>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A93" s="6"/>
+      <c r="B93" s="6"/>
+      <c r="C93" s="6"/>
+      <c r="D93" s="6" t="s">
+        <v>670</v>
+      </c>
+      <c r="E93" s="6"/>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A94" s="6"/>
+      <c r="B94" s="6"/>
+      <c r="C94" s="6"/>
+      <c r="D94" s="6" t="s">
+        <v>626</v>
+      </c>
+      <c r="E94" s="6" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A95" s="6" t="s">
+        <v>537</v>
+      </c>
+      <c r="B95" s="6" t="s">
+        <v>538</v>
+      </c>
+      <c r="C95" s="6" t="s">
+        <v>649</v>
+      </c>
+      <c r="D95" s="6" t="s">
+        <v>651</v>
+      </c>
+      <c r="E95" s="6"/>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A96" s="6"/>
+      <c r="B96" s="6"/>
+      <c r="C96" s="6" t="s">
+        <v>654</v>
+      </c>
+      <c r="D96" s="6" t="s">
+        <v>671</v>
+      </c>
+      <c r="E96" s="6"/>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A97" s="6"/>
+      <c r="B97" s="6"/>
+      <c r="C97" s="6"/>
+      <c r="D97" s="6" t="s">
+        <v>672</v>
+      </c>
+      <c r="E97" s="6"/>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A98" s="6"/>
+      <c r="B98" s="6"/>
+      <c r="C98" s="6"/>
+      <c r="D98" s="6" t="s">
+        <v>673</v>
+      </c>
+      <c r="E98" s="6" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A99" s="6" t="s">
+        <v>540</v>
+      </c>
+      <c r="B99" s="6" t="s">
+        <v>541</v>
+      </c>
+      <c r="C99" s="6" t="s">
+        <v>542</v>
+      </c>
+      <c r="D99" s="6" t="s">
+        <v>674</v>
+      </c>
+      <c r="E99" s="6"/>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A100" s="6"/>
+      <c r="B100" s="6"/>
+      <c r="C100" s="6"/>
+      <c r="D100" s="6" t="s">
+        <v>675</v>
+      </c>
+      <c r="E100" s="6"/>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A101" s="6"/>
+      <c r="B101" s="6"/>
+      <c r="C101" s="6"/>
+      <c r="D101" s="6" t="s">
+        <v>676</v>
+      </c>
+      <c r="E101" s="6" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A102" s="6" t="s">
+        <v>544</v>
+      </c>
+      <c r="B102" s="6" t="s">
+        <v>545</v>
+      </c>
+      <c r="C102" s="6" t="s">
+        <v>542</v>
+      </c>
+      <c r="D102" s="6" t="s">
+        <v>677</v>
+      </c>
+      <c r="E102" s="6"/>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A103" s="6"/>
+      <c r="B103" s="6"/>
+      <c r="C103" s="6"/>
+      <c r="D103" s="6" t="s">
+        <v>678</v>
+      </c>
+      <c r="E103" s="6" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A104" s="6" t="s">
+        <v>547</v>
+      </c>
+      <c r="B104" s="6" t="s">
+        <v>548</v>
+      </c>
+      <c r="C104" s="6" t="s">
+        <v>679</v>
+      </c>
+      <c r="D104" s="6" t="s">
+        <v>681</v>
+      </c>
+      <c r="E104" s="6"/>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A105" s="6"/>
+      <c r="B105" s="6"/>
+      <c r="C105" s="6" t="s">
+        <v>680</v>
+      </c>
+      <c r="D105" s="6" t="s">
+        <v>682</v>
+      </c>
+      <c r="E105" s="6"/>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A106" s="6"/>
+      <c r="B106" s="6"/>
+      <c r="C106" s="6"/>
+      <c r="D106" s="6" t="s">
+        <v>683</v>
+      </c>
+      <c r="E106" s="6"/>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A107" s="6"/>
+      <c r="B107" s="6"/>
+      <c r="C107" s="6"/>
+      <c r="D107" s="6" t="s">
+        <v>684</v>
+      </c>
+      <c r="E107" s="6" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A108" s="6" t="s">
+        <v>550</v>
+      </c>
+      <c r="B108" s="6" t="s">
+        <v>551</v>
+      </c>
+      <c r="C108" s="6" t="s">
+        <v>679</v>
+      </c>
+      <c r="D108" s="6" t="s">
+        <v>686</v>
+      </c>
+      <c r="E108" s="6"/>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A109" s="6"/>
+      <c r="B109" s="6"/>
+      <c r="C109" s="6" t="s">
+        <v>685</v>
+      </c>
+      <c r="D109" s="6" t="s">
+        <v>687</v>
+      </c>
+      <c r="E109" s="6"/>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A110" s="6"/>
+      <c r="B110" s="6"/>
+      <c r="C110" s="6"/>
+      <c r="D110" s="6" t="s">
+        <v>688</v>
+      </c>
+      <c r="E110" s="6"/>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A111" s="6"/>
+      <c r="B111" s="6"/>
+      <c r="C111" s="6"/>
+      <c r="D111" s="6" t="s">
+        <v>626</v>
+      </c>
+      <c r="E111" s="6" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A112" s="6" t="s">
+        <v>553</v>
+      </c>
+      <c r="B112" s="6" t="s">
+        <v>554</v>
+      </c>
+      <c r="C112" s="6" t="s">
+        <v>679</v>
+      </c>
+      <c r="D112" s="6" t="s">
+        <v>690</v>
+      </c>
+      <c r="E112" s="6"/>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A113" s="6"/>
+      <c r="B113" s="6"/>
+      <c r="C113" s="6" t="s">
+        <v>689</v>
+      </c>
+      <c r="D113" s="6" t="s">
+        <v>691</v>
+      </c>
+      <c r="E113" s="6" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A114" s="6" t="s">
+        <v>556</v>
+      </c>
+      <c r="B114" s="6" t="s">
+        <v>557</v>
+      </c>
+      <c r="C114" s="6" t="s">
+        <v>558</v>
+      </c>
+      <c r="D114" s="6" t="s">
+        <v>692</v>
+      </c>
+      <c r="E114" s="6"/>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A115" s="6"/>
+      <c r="B115" s="6"/>
+      <c r="C115" s="6"/>
+      <c r="D115" s="6" t="s">
+        <v>693</v>
+      </c>
+      <c r="E115" s="6"/>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A116" s="6"/>
+      <c r="B116" s="6"/>
+      <c r="C116" s="6"/>
+      <c r="D116" s="6" t="s">
+        <v>694</v>
+      </c>
+      <c r="E116" s="6" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A117" s="6" t="s">
+        <v>560</v>
+      </c>
+      <c r="B117" s="6" t="s">
+        <v>561</v>
+      </c>
+      <c r="C117" s="6" t="s">
+        <v>695</v>
+      </c>
+      <c r="D117" s="6" t="s">
+        <v>697</v>
+      </c>
+      <c r="E117" s="6"/>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A118" s="6"/>
+      <c r="B118" s="6"/>
+      <c r="C118" s="6" t="s">
+        <v>696</v>
+      </c>
+      <c r="D118" s="6" t="s">
+        <v>698</v>
+      </c>
+      <c r="E118" s="6" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A119" s="6" t="s">
+        <v>563</v>
+      </c>
+      <c r="B119" s="6" t="s">
+        <v>434</v>
+      </c>
+      <c r="C119" s="6" t="s">
+        <v>564</v>
+      </c>
+      <c r="D119" s="6" t="s">
+        <v>699</v>
+      </c>
+      <c r="E119" s="6"/>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A120" s="6"/>
+      <c r="B120" s="6"/>
+      <c r="C120" s="6"/>
+      <c r="D120" s="6" t="s">
+        <v>700</v>
+      </c>
+      <c r="E120" s="6"/>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A121" s="6"/>
+      <c r="B121" s="6"/>
+      <c r="C121" s="6"/>
+      <c r="D121" s="6" t="s">
+        <v>701</v>
+      </c>
+      <c r="E121" s="6" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A122" s="6" t="s">
+        <v>566</v>
+      </c>
+      <c r="B122" s="6" t="s">
+        <v>567</v>
+      </c>
+      <c r="C122" s="6" t="s">
+        <v>702</v>
+      </c>
+      <c r="D122" s="6" t="s">
+        <v>704</v>
+      </c>
+      <c r="E122" s="6"/>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A123" s="6"/>
+      <c r="B123" s="6"/>
+      <c r="C123" s="6" t="s">
+        <v>703</v>
+      </c>
+      <c r="D123" s="6" t="s">
+        <v>705</v>
+      </c>
+      <c r="E123" s="6" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A124" s="6" t="s">
+        <v>569</v>
+      </c>
+      <c r="B124" s="6" t="s">
+        <v>570</v>
+      </c>
+      <c r="C124" s="6" t="s">
+        <v>706</v>
+      </c>
+      <c r="D124" s="6" t="s">
+        <v>708</v>
+      </c>
+      <c r="E124" s="6"/>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A125" s="6"/>
+      <c r="B125" s="6"/>
+      <c r="C125" s="6" t="s">
+        <v>707</v>
+      </c>
+      <c r="D125" s="6" t="s">
+        <v>709</v>
+      </c>
+      <c r="E125" s="6" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A126" s="6" t="s">
+        <v>572</v>
+      </c>
+      <c r="B126" s="6" t="s">
+        <v>573</v>
+      </c>
+      <c r="C126" s="6" t="s">
+        <v>706</v>
+      </c>
+      <c r="D126" s="6" t="s">
+        <v>708</v>
+      </c>
+      <c r="E126" s="6"/>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A127" s="6"/>
+      <c r="B127" s="6"/>
+      <c r="C127" s="6" t="s">
+        <v>707</v>
+      </c>
+      <c r="D127" s="6" t="s">
+        <v>710</v>
+      </c>
+      <c r="E127" s="6" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A128" s="6" t="s">
+        <v>575</v>
+      </c>
+      <c r="B128" s="6" t="s">
+        <v>576</v>
+      </c>
+      <c r="C128" s="6" t="s">
+        <v>706</v>
+      </c>
+      <c r="D128" s="6" t="s">
+        <v>708</v>
+      </c>
+      <c r="E128" s="6"/>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A129" s="6"/>
+      <c r="B129" s="6"/>
+      <c r="C129" s="6" t="s">
+        <v>707</v>
+      </c>
+      <c r="D129" s="6" t="s">
+        <v>711</v>
+      </c>
+      <c r="E129" s="6" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A130" s="6" t="s">
+        <v>578</v>
+      </c>
+      <c r="B130" s="6" t="s">
+        <v>579</v>
+      </c>
+      <c r="C130" s="6" t="s">
+        <v>706</v>
+      </c>
+      <c r="D130" s="6" t="s">
+        <v>708</v>
+      </c>
+      <c r="E130" s="6"/>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A131" s="6"/>
+      <c r="B131" s="6"/>
+      <c r="C131" s="6" t="s">
+        <v>707</v>
+      </c>
+      <c r="D131" s="6" t="s">
+        <v>712</v>
+      </c>
+      <c r="E131" s="6" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A132" s="6" t="s">
+        <v>581</v>
+      </c>
+      <c r="B132" s="6" t="s">
+        <v>582</v>
+      </c>
+      <c r="C132" s="6" t="s">
+        <v>706</v>
+      </c>
+      <c r="D132" s="6" t="s">
+        <v>708</v>
+      </c>
+      <c r="E132" s="6"/>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A133" s="6"/>
+      <c r="B133" s="6"/>
+      <c r="C133" s="6" t="s">
+        <v>707</v>
+      </c>
+      <c r="D133" s="6" t="s">
+        <v>713</v>
+      </c>
+      <c r="E133" s="6" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A134" s="6" t="s">
+        <v>584</v>
+      </c>
+      <c r="B134" s="6" t="s">
+        <v>585</v>
+      </c>
+      <c r="C134" s="6" t="s">
+        <v>706</v>
+      </c>
+      <c r="D134" s="6" t="s">
+        <v>714</v>
+      </c>
+      <c r="E134" s="6"/>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A135" s="6"/>
+      <c r="B135" s="6"/>
+      <c r="C135" s="6" t="s">
+        <v>558</v>
+      </c>
+      <c r="D135" s="6" t="s">
+        <v>715</v>
+      </c>
+      <c r="E135" s="6"/>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A136" s="6"/>
+      <c r="B136" s="6"/>
+      <c r="C136" s="6"/>
+      <c r="D136" s="6" t="s">
+        <v>716</v>
+      </c>
+      <c r="E136" s="6" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A137" s="6" t="s">
+        <v>587</v>
+      </c>
+      <c r="B137" s="6" t="s">
+        <v>588</v>
+      </c>
+      <c r="C137" s="6" t="s">
+        <v>589</v>
+      </c>
+      <c r="D137" s="6" t="s">
+        <v>590</v>
+      </c>
+      <c r="E137" s="6" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A138" s="6" t="s">
+        <v>592</v>
+      </c>
+      <c r="B138" s="6" t="s">
+        <v>593</v>
+      </c>
+      <c r="C138" s="6" t="s">
+        <v>594</v>
+      </c>
+      <c r="D138" s="6" t="s">
+        <v>717</v>
+      </c>
+      <c r="E138" s="6"/>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A139" s="6"/>
+      <c r="B139" s="6"/>
+      <c r="C139" s="6"/>
+      <c r="D139" s="6" t="s">
+        <v>718</v>
+      </c>
+      <c r="E139" s="6" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A140" s="6" t="s">
+        <v>596</v>
+      </c>
+      <c r="B140" s="6" t="s">
+        <v>597</v>
+      </c>
+      <c r="C140" s="6" t="s">
+        <v>706</v>
+      </c>
+      <c r="D140" s="6" t="s">
+        <v>719</v>
+      </c>
+      <c r="E140" s="6"/>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A141" s="6"/>
+      <c r="B141" s="6"/>
+      <c r="C141" s="6" t="s">
+        <v>707</v>
+      </c>
+      <c r="D141" s="6" t="s">
+        <v>720</v>
+      </c>
+      <c r="E141" s="6" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A142" s="6" t="s">
+        <v>599</v>
+      </c>
+      <c r="B142" s="6" t="s">
+        <v>600</v>
+      </c>
+      <c r="C142" s="6" t="s">
+        <v>601</v>
+      </c>
+      <c r="D142" s="6" t="s">
+        <v>721</v>
+      </c>
+      <c r="E142" s="6"/>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A143" s="6"/>
+      <c r="B143" s="6"/>
+      <c r="C143" s="6"/>
+      <c r="D143" s="6" t="s">
+        <v>722</v>
+      </c>
+      <c r="E143" s="6" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A144" s="6" t="s">
+        <v>603</v>
+      </c>
+      <c r="B144" s="6" t="s">
+        <v>604</v>
+      </c>
+      <c r="C144" s="6" t="s">
+        <v>464</v>
+      </c>
+      <c r="D144" s="6" t="s">
+        <v>619</v>
+      </c>
+      <c r="E144" s="6"/>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A145" s="6"/>
+      <c r="B145" s="6"/>
+      <c r="C145" s="6"/>
+      <c r="D145" s="6" t="s">
+        <v>723</v>
+      </c>
+      <c r="E145" s="6"/>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A146" s="6"/>
+      <c r="B146" s="6"/>
+      <c r="C146" s="6"/>
+      <c r="D146" s="6" t="s">
+        <v>621</v>
+      </c>
+      <c r="E146" s="6" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A147" s="6" t="s">
+        <v>606</v>
+      </c>
+      <c r="B147" s="6" t="s">
+        <v>607</v>
+      </c>
+      <c r="C147" s="6" t="s">
+        <v>502</v>
+      </c>
+      <c r="D147" s="6" t="s">
+        <v>651</v>
+      </c>
+      <c r="E147" s="6"/>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A148" s="6"/>
+      <c r="B148" s="6"/>
+      <c r="C148" s="6"/>
+      <c r="D148" s="6" t="s">
+        <v>724</v>
+      </c>
+      <c r="E148" s="6"/>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A149" s="6"/>
+      <c r="B149" s="6"/>
+      <c r="C149" s="6"/>
+      <c r="D149" s="6" t="s">
+        <v>725</v>
+      </c>
+      <c r="E149" s="6"/>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A150" s="6"/>
+      <c r="B150" s="6"/>
+      <c r="C150" s="6"/>
+      <c r="D150" s="6" t="s">
+        <v>726</v>
+      </c>
+      <c r="E150" s="6" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A151" s="6" t="s">
+        <v>609</v>
+      </c>
+      <c r="B151" s="6" t="s">
+        <v>610</v>
+      </c>
+      <c r="C151" s="6" t="s">
+        <v>542</v>
+      </c>
+      <c r="D151" s="6" t="s">
+        <v>674</v>
+      </c>
+      <c r="E151" s="6"/>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A152" s="6"/>
+      <c r="B152" s="6"/>
+      <c r="C152" s="6"/>
+      <c r="D152" s="6" t="s">
+        <v>727</v>
+      </c>
+      <c r="E152" s="6"/>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A153" s="6"/>
+      <c r="B153" s="6"/>
+      <c r="C153" s="6"/>
+      <c r="D153" s="6" t="s">
+        <v>676</v>
+      </c>
+      <c r="E153" s="6" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A154" s="6" t="s">
+        <v>611</v>
+      </c>
+      <c r="B154" s="6" t="s">
+        <v>612</v>
+      </c>
+      <c r="C154" s="6" t="s">
+        <v>613</v>
+      </c>
+      <c r="D154" s="6" t="s">
+        <v>681</v>
+      </c>
+      <c r="E154" s="6"/>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A155" s="6"/>
+      <c r="B155" s="6"/>
+      <c r="C155" s="6"/>
+      <c r="D155" s="6" t="s">
+        <v>728</v>
+      </c>
+      <c r="E155" s="6"/>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A156" s="6"/>
+      <c r="B156" s="6"/>
+      <c r="C156" s="6"/>
+      <c r="D156" s="6" t="s">
+        <v>729</v>
+      </c>
+      <c r="E156" s="6"/>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A157" s="6"/>
+      <c r="B157" s="6"/>
+      <c r="C157" s="6"/>
+      <c r="D157" s="6" t="s">
+        <v>730</v>
+      </c>
+      <c r="E157" s="6" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A158" s="6" t="s">
+        <v>615</v>
+      </c>
+      <c r="B158" s="6" t="s">
+        <v>616</v>
+      </c>
+      <c r="C158" s="6" t="s">
+        <v>617</v>
+      </c>
+      <c r="D158" s="6" t="s">
+        <v>731</v>
+      </c>
+      <c r="E158" s="6"/>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A159" s="6"/>
+      <c r="B159" s="6"/>
+      <c r="C159" s="6"/>
+      <c r="D159" s="6" t="s">
+        <v>732</v>
+      </c>
+      <c r="E159" s="6"/>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A160" s="6"/>
+      <c r="B160" s="6"/>
+      <c r="C160" s="6"/>
+      <c r="D160" s="6" t="s">
+        <v>733</v>
+      </c>
+      <c r="E160" s="6" t="s">
+        <v>618</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38671E46-D3DF-4696-AC67-FC506F6D6865}">
   <dimension ref="A1:F35"/>
   <sheetViews>
-    <sheetView topLeftCell="B13" workbookViewId="0">
-      <selection activeCell="C27" sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2024,11 +5445,11 @@
       <c r="A3" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="13" t="s">
         <v>222</v>
       </c>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="6"/>
@@ -2329,8 +5750,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28E2E6CA-964C-4A5E-B82D-64F1B94A0AD2}">
   <dimension ref="A1:E27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2615,7 +6036,7 @@
   <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E17" sqref="A1:I18"/>
+      <selection activeCell="E3" sqref="E3:E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -3008,8 +6429,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97B95EE4-CA99-4C8F-8D11-3F58AFBBFAD2}">
   <dimension ref="A1:B28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="A4:B28"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -3239,10 +6660,13 @@
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C14" sqref="A3:C14"/>
+      <selection activeCell="A3" sqref="A3:C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="3" max="3" width="10.36328125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
@@ -4849,10 +8273,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{515BAAA7-441C-43F5-8451-5A91F0C8CC94}">
-  <dimension ref="A1:F78"/>
+  <dimension ref="A1:E78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView topLeftCell="B70" zoomScale="113" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4870,13 +8294,13 @@
       <c r="A3" s="6" t="s">
         <v>399</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>400</v>
-      </c>
+      <c r="B3" s="6"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="6"/>
-      <c r="B4" s="6"/>
+      <c r="B4" s="5" t="s">
+        <v>734</v>
+      </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
@@ -4920,7 +8344,9 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" s="5"/>
-      <c r="B12" s="6"/>
+      <c r="B12" s="5" t="s">
+        <v>735</v>
+      </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" s="5" t="s">
@@ -4970,7 +8396,9 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" s="5"/>
-      <c r="B21" s="6"/>
+      <c r="B21" s="5" t="s">
+        <v>736</v>
+      </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" s="5" t="s">
@@ -5008,7 +8436,9 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" s="5"/>
-      <c r="B28" s="6"/>
+      <c r="B28" s="5" t="s">
+        <v>737</v>
+      </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" s="5" t="s">
@@ -5024,73 +8454,75 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" s="5"/>
-      <c r="B31" s="6"/>
+      <c r="B31" s="5" t="s">
+        <v>738</v>
+      </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" s="5" t="s">
         <v>381</v>
       </c>
-      <c r="B32" s="14" t="s">
+      <c r="B32" s="6" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" s="5"/>
       <c r="B33" s="6" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" s="5"/>
       <c r="B34" s="6"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" s="5"/>
       <c r="B35" s="5"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36" s="5"/>
       <c r="B36" s="5"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37" s="5" t="s">
         <v>385</v>
       </c>
-      <c r="B37" s="14" t="s">
+      <c r="B37" s="6" t="s">
         <v>350</v>
       </c>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38" s="5"/>
-      <c r="B38" s="14" t="s">
+      <c r="B38" s="6" t="s">
         <v>351</v>
       </c>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39" s="5"/>
       <c r="B39" s="6"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A40" s="5"/>
       <c r="B40" s="6"/>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A41" s="5"/>
       <c r="B41" s="6"/>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A42" s="5" t="s">
         <v>386</v>
       </c>
@@ -5098,326 +8530,194 @@
         <v>377</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A43" s="5"/>
       <c r="B43" s="6" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A44" s="5"/>
       <c r="B44" s="6" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A45" s="5"/>
-      <c r="B45" s="14"/>
-      <c r="C45" s="13"/>
-      <c r="D45" s="13"/>
-      <c r="E45" s="13"/>
-      <c r="F45" s="13"/>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B45" s="6"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A46" s="5"/>
-      <c r="B46" s="14"/>
-      <c r="C46" s="13"/>
-      <c r="D46" s="13"/>
-      <c r="E46" s="13"/>
-      <c r="F46" s="13"/>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B46" s="6"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A47" s="5"/>
-      <c r="B47" s="14"/>
-      <c r="C47" s="13"/>
-      <c r="D47" s="13"/>
-      <c r="E47" s="13"/>
-      <c r="F47" s="13"/>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B47" s="6"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A48" s="5" t="s">
         <v>387</v>
       </c>
-      <c r="B48" s="14" t="s">
+      <c r="B48" s="6" t="s">
         <v>379</v>
       </c>
-      <c r="C48" s="13"/>
-      <c r="D48" s="13"/>
-      <c r="E48" s="13"/>
-      <c r="F48" s="13"/>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A49" s="5"/>
-      <c r="B49" s="14"/>
-      <c r="C49" s="13"/>
-      <c r="D49" s="13"/>
-      <c r="E49" s="13"/>
-      <c r="F49" s="13"/>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B49" s="6"/>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A50" s="5"/>
-      <c r="B50" s="14"/>
-      <c r="C50" s="13"/>
-      <c r="D50" s="13"/>
-      <c r="E50" s="13"/>
-      <c r="F50" s="13"/>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B50" s="6"/>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A51" s="5" t="s">
         <v>388</v>
       </c>
-      <c r="B51" s="14" t="s">
+      <c r="B51" s="6" t="s">
         <v>378</v>
       </c>
-      <c r="C51" s="13"/>
-      <c r="D51" s="13"/>
-      <c r="E51" s="13"/>
-      <c r="F51" s="13"/>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A52" s="5"/>
-      <c r="B52" s="14" t="s">
+      <c r="B52" s="6" t="s">
         <v>397</v>
       </c>
-      <c r="C52" s="13"/>
-      <c r="D52" s="13"/>
-      <c r="E52" s="13"/>
-      <c r="F52" s="13"/>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A53" s="5"/>
-      <c r="B53" s="14"/>
-      <c r="C53" s="13"/>
-      <c r="D53" s="13"/>
-      <c r="E53" s="13"/>
-      <c r="F53" s="13"/>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B53" s="6"/>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A54" s="5"/>
-      <c r="B54" s="14"/>
-      <c r="C54" s="13"/>
-      <c r="D54" s="13"/>
-      <c r="E54" s="13"/>
-      <c r="F54" s="13"/>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B54" s="6"/>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A55" s="5"/>
-      <c r="B55" s="14"/>
-      <c r="C55" s="13"/>
-      <c r="D55" s="13"/>
-      <c r="E55" s="13"/>
-      <c r="F55" s="13"/>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B55" s="6"/>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A56" s="5" t="s">
         <v>389</v>
       </c>
-      <c r="B56" s="14" t="s">
+      <c r="B56" s="6" t="s">
         <v>398</v>
       </c>
-      <c r="C56" s="13"/>
-      <c r="D56" s="13"/>
-      <c r="E56" s="13"/>
-      <c r="F56" s="13"/>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A57" s="5"/>
-      <c r="B57" s="14"/>
-      <c r="C57" s="13"/>
-      <c r="D57" s="13"/>
-      <c r="E57" s="13"/>
-      <c r="F57" s="13"/>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B57" s="6"/>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A58" s="5"/>
-      <c r="B58" s="14"/>
-      <c r="C58" s="13"/>
-      <c r="D58" s="13"/>
-      <c r="E58" s="13"/>
-      <c r="F58" s="13"/>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B58" s="6"/>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A59" s="5"/>
-      <c r="B59" s="14"/>
-      <c r="C59" s="13"/>
-      <c r="D59" s="13"/>
-      <c r="E59" s="13"/>
-      <c r="F59" s="13"/>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B59" s="6"/>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A60" s="5" t="s">
         <v>390</v>
       </c>
-      <c r="B60" s="14" t="s">
+      <c r="B60" s="6" t="s">
         <v>395</v>
       </c>
-      <c r="C60" s="13"/>
-      <c r="D60" s="13"/>
-      <c r="E60" s="13"/>
-      <c r="F60" s="13"/>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A61" s="5"/>
-      <c r="B61" s="14" t="s">
+      <c r="B61" s="6" t="s">
         <v>396</v>
       </c>
-      <c r="C61" s="13"/>
-      <c r="D61" s="13"/>
-      <c r="E61" s="13"/>
-      <c r="F61" s="13"/>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A62" s="5"/>
-      <c r="B62" s="14" t="s">
+      <c r="B62" s="6" t="s">
         <v>353</v>
       </c>
-      <c r="C62" s="13"/>
-      <c r="D62" s="13"/>
-      <c r="E62" s="13"/>
-      <c r="F62" s="13"/>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A63" s="5"/>
-      <c r="B63" s="14" t="s">
+      <c r="B63" s="6" t="s">
         <v>354</v>
       </c>
-      <c r="C63" s="13"/>
-      <c r="D63" s="13"/>
-      <c r="E63" s="13"/>
-      <c r="F63" s="13"/>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A64" s="5"/>
-      <c r="B64" s="14"/>
-      <c r="C64" s="13"/>
-      <c r="D64" s="13"/>
-      <c r="E64" s="13"/>
-      <c r="F64" s="13"/>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B64" s="6"/>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A65" s="5"/>
-      <c r="B65" s="14"/>
-      <c r="C65" s="13"/>
-      <c r="D65" s="13"/>
-      <c r="E65" s="13"/>
-      <c r="F65" s="13"/>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B65" s="6"/>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A66" s="5"/>
-      <c r="B66" s="14"/>
-      <c r="C66" s="13"/>
-      <c r="D66" s="13"/>
-      <c r="E66" s="13"/>
-      <c r="F66" s="13"/>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B66" s="6"/>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A67" s="5" t="s">
         <v>391</v>
       </c>
-      <c r="B67" s="14" t="s">
+      <c r="B67" s="6" t="s">
         <v>355</v>
       </c>
-      <c r="C67" s="13"/>
-      <c r="D67" s="13"/>
-      <c r="E67" s="13"/>
-      <c r="F67" s="13"/>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A68" s="5"/>
-      <c r="B68" s="14"/>
-      <c r="C68" s="13"/>
-      <c r="D68" s="13"/>
-      <c r="E68" s="13"/>
-      <c r="F68" s="13"/>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B68" s="6"/>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A69" s="5"/>
-      <c r="B69" s="14"/>
-      <c r="C69" s="13"/>
-      <c r="D69" s="13"/>
-      <c r="E69" s="13"/>
-      <c r="F69" s="13"/>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B69" s="6"/>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A70" s="5"/>
-      <c r="B70" s="14"/>
-      <c r="C70" s="13"/>
-      <c r="D70" s="13"/>
-      <c r="E70" s="13"/>
-      <c r="F70" s="13"/>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B70" s="6"/>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A71" s="5" t="s">
         <v>392</v>
       </c>
-      <c r="B71" s="14" t="s">
+      <c r="B71" s="6" t="s">
         <v>360</v>
       </c>
-      <c r="C71" s="13"/>
-      <c r="D71" s="13"/>
-      <c r="E71" s="13"/>
-      <c r="F71" s="13"/>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A72" s="5"/>
-      <c r="B72" s="14" t="s">
+      <c r="B72" s="6" t="s">
         <v>361</v>
       </c>
-      <c r="C72" s="13"/>
-      <c r="D72" s="13"/>
-      <c r="E72" s="13"/>
-      <c r="F72" s="13"/>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A73" s="5"/>
-      <c r="B73" s="14"/>
-      <c r="C73" s="13"/>
-      <c r="D73" s="13"/>
-      <c r="E73" s="13"/>
-      <c r="F73" s="13"/>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B73" s="6"/>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A74" s="5"/>
-      <c r="B74" s="14"/>
-      <c r="C74" s="13"/>
-      <c r="D74" s="13"/>
-      <c r="E74" s="13"/>
-      <c r="F74" s="13"/>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B74" s="6"/>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A75" s="5"/>
-      <c r="B75" s="14"/>
-      <c r="C75" s="13"/>
-      <c r="D75" s="13"/>
-      <c r="E75" s="13"/>
-      <c r="F75" s="13"/>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B75" s="6"/>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A76" s="5" t="s">
         <v>393</v>
       </c>
-      <c r="B76" s="14" t="s">
+      <c r="B76" s="6" t="s">
         <v>356</v>
       </c>
-      <c r="C76" s="13"/>
-      <c r="D76" s="13"/>
-      <c r="E76" s="13"/>
-      <c r="F76" s="13"/>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A77" s="5"/>
-      <c r="B77" s="14" t="s">
+      <c r="B77" s="6" t="s">
         <v>357</v>
       </c>
-      <c r="C77" s="13"/>
-      <c r="D77" s="13"/>
-      <c r="E77" s="13"/>
-      <c r="F77" s="13"/>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A78" s="6"/>
       <c r="B78" s="6" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
   </sheetData>
